--- a/src/test/java/resources/ulkeler.xlsx
+++ b/src/test/java/resources/ulkeler.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
